--- a/references/従業員のパルス調査が人材に必要な理由.xlsx
+++ b/references/従業員のパルス調査が人材に必要な理由.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18315" windowHeight="7380"/>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B:$D</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -890,7 +893,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="27">
     <font>
       <sz val="11"/>
@@ -1271,7 +1274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1345,7 +1348,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1380,7 +1382,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1556,11 +1557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:D155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2635,11 +2639,12 @@
     <hyperlink ref="B1" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2652,7 +2657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
